--- a/nomii_real/data/deliverystatus.xlsx
+++ b/nomii_real/data/deliverystatus.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>OrderID</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>add6407f-8225-46ae-be70-e5a3c9a9b5c7</t>
+  </si>
+  <si>
+    <t>89bdc2f6-0e22-47a8-b4f2-b7b5696fc495</t>
+  </si>
+  <si>
+    <t>0947da20-6ab3-444d-97b4-2aa9c1662a75</t>
   </si>
   <si>
     <t>Samantha Barnett</t>
@@ -465,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -493,10 +499,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>45873</v>
@@ -510,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
         <v>45873</v>
@@ -527,10 +533,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2">
         <v>45872</v>
@@ -544,10 +550,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2">
         <v>45873</v>
@@ -558,10 +564,10 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>45874</v>
@@ -575,10 +581,10 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2">
         <v>45871</v>
@@ -592,10 +598,10 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
         <v>45870</v>
@@ -606,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2">
         <v>45873</v>
@@ -623,10 +629,10 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>45872</v>
@@ -640,10 +646,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2">
         <v>45874</v>
@@ -657,7 +663,35 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="D12" s="2">
+        <v>45876.96630787037</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45876.96645833334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="2">
+        <v>45876.96640046296</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45876.96673611111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
